--- a/data/trans_orig/FELICIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FELICIDAD-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bienestar emocional - Felicidad escala 0-10</t>
+          <t>Bienestar emocional - Felicidad escala 0-10 (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FELICIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FELICIDAD-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 6,82</t>
+          <t>6,3; 7,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 7,13</t>
+          <t>6,37; 7,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 6,6</t>
+          <t>5,73; 6,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 5,98</t>
+          <t>5,66; 6,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 6,61</t>
+          <t>6,13; 6,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 6,34</t>
+          <t>5,42; 6,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 6,23</t>
+          <t>5,99; 6,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 6,71</t>
+          <t>6,3; 6,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 6,39</t>
+          <t>5,76; 6,39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 6,6</t>
+          <t>6,35; 6,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,08</t>
+          <t>7,84; 9,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 6,77</t>
+          <t>6,48; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 6,14</t>
+          <t>6,06; 6,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 6,61</t>
+          <t>6,33; 6,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 6,33</t>
+          <t>6,24; 6,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 8,61</t>
+          <t>7,72; 8,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,82</t>
+          <t>6,46; 6,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,75; 8,2</t>
+          <t>7,7; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 7,04</t>
+          <t>6,79; 7,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 6,46</t>
+          <t>6,16; 6,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 7,84</t>
+          <t>7,41; 7,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 6,92</t>
+          <t>6,6; 6,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 6,55</t>
+          <t>6,37; 6,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,96</t>
+          <t>7,64; 7,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 6,93</t>
+          <t>6,72; 6,94</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,61</t>
+          <t>6,47; 6,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 8,64</t>
+          <t>7,73; 8,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 6,12</t>
+          <t>6,12; 6,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 8,26</t>
+          <t>7,29; 8,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 6,31</t>
+          <t>6,3; 6,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,31</t>
+          <t>7,56; 8,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 6,67</t>
+          <t>6,53; 6,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/FELICIDAD-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FELICIDAD-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,69</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,74</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,95</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,99</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,38</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>6,26</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>6,35; 7,07</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 6,61</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 6,62</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6,3; 7,12</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 7,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 6,62</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,73; 6,61</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>6,17; 6,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 6,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 6,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>5,66; 6,3</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 6,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,09; 6,37</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 6,33</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>6,32; 6,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 6,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 6,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>5,99; 6,51</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 6,72</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 6,44</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 6,39</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,51</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,64</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>6,21</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>7,75</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>6,36</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,73; 8,04</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 6,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 6,77</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>6,35; 6,67</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,84; 9,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 6,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 6,77</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,48; 7,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 6,6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 6,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>6,06; 6,37</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,48; 8,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 6,75</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 6,6</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,66; 7,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 6,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 6,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>6,24; 6,47</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>7,72; 8,6</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>6,64; 6,74</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 6,65</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,91</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,7</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,66</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>6,39</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,83</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>6,53</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,76; 8,24</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 7,05</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 6,96</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>6,46; 6,94</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 8,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 6,96</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 7,05</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,45; 7,85</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 6,9</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 6,94</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>6,16; 6,6</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,41; 7,83</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,73; 6,94</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 6,9</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>7,67; 7,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 6,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 6,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>6,37; 6,69</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,64; 7,96</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 6,93</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 6,94</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,71</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,58</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>6,23</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>7,58</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,64</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>6,4</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,65; 7,89</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 6,79</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 6,76</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6,47; 6,7</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,73; 8,67</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 6,76</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 6,79</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,29; 7,5</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 6,63</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 6,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>6,12; 6,35</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,29; 8,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 6,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,41; 6,63</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,49; 7,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 6,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 6,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>6,3; 6,48</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 8,24</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 6,71</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 6,68</t>
         </is>
       </c>
     </row>
